--- a/data/trans_orig/P04B1_1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04B1_1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{377A1A8C-F1D1-415D-8C3B-4805A169D398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC5F8755-EE49-4B8D-821E-E67D77FA77FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8938AF9-581C-4AB8-8E7E-2C451EEA25C0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4212858-384C-4DDB-BFFC-EA3325CD5DC0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
   <si>
     <t>Población según si su vivienda tiene una temperatura suficientemente cálida durante los meses fríos en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>72,14%</t>
   </si>
   <si>
-    <t>64,2%</t>
+    <t>64,88%</t>
   </si>
   <si>
     <t>78,98%</t>
@@ -83,19 +83,19 @@
     <t>60,8%</t>
   </si>
   <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
   </si>
   <si>
     <t>66,66%</t>
   </si>
   <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>21,02%</t>
   </si>
   <si>
-    <t>35,8%</t>
+    <t>35,12%</t>
   </si>
   <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
   </si>
   <si>
     <t>33,34%</t>
   </si>
   <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>63,8%</t>
   </si>
   <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
   </si>
   <si>
     <t>66,23%</t>
   </si>
   <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
   </si>
   <si>
     <t>65,1%</t>
   </si>
   <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
   </si>
   <si>
     <t>36,2%</t>
   </si>
   <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
   </si>
   <si>
     <t>33,77%</t>
   </si>
   <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,49 @@
     <t>67,7%</t>
   </si>
   <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
   </si>
   <si>
     <t>68,8%</t>
   </si>
   <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
   </si>
   <si>
     <t>68,27%</t>
   </si>
   <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
+    <t>65,34%</t>
   </si>
   <si>
     <t>32,3%</t>
   </si>
   <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
   </si>
   <si>
     <t>31,2%</t>
   </si>
   <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
   </si>
   <si>
     <t>31,73%</t>
   </si>
   <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
+    <t>34,66%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +245,55 @@
     <t>71,1%</t>
   </si>
   <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
   </si>
   <si>
     <t>65,91%</t>
   </si>
   <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
   </si>
   <si>
     <t>28,9%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
   </si>
   <si>
     <t>34,09%</t>
   </si>
   <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
   </si>
   <si>
     <t>31,53%</t>
   </si>
   <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +302,55 @@
     <t>65,76%</t>
   </si>
   <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
   </si>
   <si>
     <t>64,28%</t>
   </si>
   <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
   </si>
   <si>
     <t>34,24%</t>
   </si>
   <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
   </si>
   <si>
     <t>35,72%</t>
   </si>
   <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
   </si>
   <si>
     <t>34,98%</t>
   </si>
   <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,103 +359,91 @@
     <t>64,81%</t>
   </si>
   <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
+    <t>61,84%</t>
   </si>
   <si>
     <t>69,55%</t>
   </si>
   <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
   </si>
   <si>
     <t>67,63%</t>
   </si>
   <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
   </si>
   <si>
     <t>35,19%</t>
   </si>
   <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
+    <t>38,16%</t>
   </si>
   <si>
     <t>30,45%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
   </si>
   <si>
     <t>32,37%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
   </si>
   <si>
     <t>67,49%</t>
   </si>
   <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
   </si>
   <si>
     <t>67,05%</t>
   </si>
   <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
+    <t>69,0%</t>
   </si>
   <si>
     <t>32,51%</t>
   </si>
   <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
   </si>
   <si>
     <t>32,95%</t>
   </si>
   <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
+    <t>31,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C832D82-B3E4-45BC-9A2C-BDDB84022AE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E737B9BA-CEC5-4685-A22A-D5B0C1558799}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1346,7 +1328,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1361,13 +1343,13 @@
         <v>179660</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>250</v>
@@ -1376,13 +1358,13 @@
         <v>189935</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>427</v>
@@ -1391,13 +1373,13 @@
         <v>369596</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,7 +1435,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1465,13 +1447,13 @@
         <v>514783</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>762</v>
@@ -1480,13 +1462,13 @@
         <v>491003</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1230</v>
@@ -1495,13 +1477,13 @@
         <v>1005786</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,13 +1498,13 @@
         <v>209207</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>375</v>
@@ -1531,13 +1513,13 @@
         <v>253960</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>572</v>
@@ -1546,13 +1528,13 @@
         <v>463168</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,7 +1590,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1620,13 +1602,13 @@
         <v>392285</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>664</v>
@@ -1635,13 +1617,13 @@
         <v>383341</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1100</v>
@@ -1650,13 +1632,13 @@
         <v>775627</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1653,13 @@
         <v>204280</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>337</v>
@@ -1686,13 +1668,13 @@
         <v>213051</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>560</v>
@@ -1701,13 +1683,13 @@
         <v>417331</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,7 +1745,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1775,13 +1757,13 @@
         <v>451703</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="H19" s="7">
         <v>1175</v>
@@ -1790,13 +1772,13 @@
         <v>713103</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>1853</v>
@@ -1805,13 +1787,13 @@
         <v>1164806</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1808,13 @@
         <v>245227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>531</v>
@@ -1841,13 +1823,13 @@
         <v>312244</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>880</v>
@@ -1856,13 +1838,13 @@
         <v>557470</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1912,13 @@
         <v>2280953</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>3626</v>
@@ -1948,10 +1930,10 @@
         <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>5882</v>
@@ -1960,13 +1942,13 @@
         <v>4832442</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1963,13 @@
         <v>1098647</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>1730</v>
@@ -1999,10 +1981,10 @@
         <v>27</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>2842</v>
@@ -2011,13 +1993,13 @@
         <v>2374868</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,7 +2055,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04B1_1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04B1_1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC5F8755-EE49-4B8D-821E-E67D77FA77FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ED18EAE-78DA-40B0-AA1D-F7308CFE40F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4212858-384C-4DDB-BFFC-EA3325CD5DC0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D4F5594C-5BBA-4072-864A-45302BBF2316}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="164">
   <si>
     <t>Población según si su vivienda tiene una temperatura suficientemente cálida durante los meses fríos en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -65,385 +65,466 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
   </si>
   <si>
     <t>65,1%</t>
   </si>
   <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -858,8 +939,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E737B9BA-CEC5-4685-A22A-D5B0C1558799}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E717D88E-E5CC-463B-A3FE-82D327C41BC1}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -979,7 +1060,7 @@
         <v>115</v>
       </c>
       <c r="D4" s="7">
-        <v>272444</v>
+        <v>307784</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -994,7 +1075,7 @@
         <v>125</v>
       </c>
       <c r="I4" s="7">
-        <v>214677</v>
+        <v>197015</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1009,7 +1090,7 @@
         <v>240</v>
       </c>
       <c r="N4" s="7">
-        <v>487122</v>
+        <v>504799</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1030,7 +1111,7 @@
         <v>57</v>
       </c>
       <c r="D5" s="7">
-        <v>105235</v>
+        <v>92203</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1045,7 +1126,7 @@
         <v>81</v>
       </c>
       <c r="I5" s="7">
-        <v>138423</v>
+        <v>114450</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1060,7 +1141,7 @@
         <v>138</v>
       </c>
       <c r="N5" s="7">
-        <v>243657</v>
+        <v>206653</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1081,7 +1162,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1096,7 +1177,7 @@
         <v>206</v>
       </c>
       <c r="I6" s="7">
-        <v>353100</v>
+        <v>311465</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1111,7 +1192,7 @@
         <v>378</v>
       </c>
       <c r="N6" s="7">
-        <v>730779</v>
+        <v>711452</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1134,7 +1215,7 @@
         <v>192</v>
       </c>
       <c r="D7" s="7">
-        <v>273197</v>
+        <v>282480</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1149,7 +1230,7 @@
         <v>305</v>
       </c>
       <c r="I7" s="7">
-        <v>330608</v>
+        <v>367586</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1164,7 +1245,7 @@
         <v>497</v>
       </c>
       <c r="N7" s="7">
-        <v>603805</v>
+        <v>650066</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1185,7 +1266,7 @@
         <v>109</v>
       </c>
       <c r="D8" s="7">
-        <v>155039</v>
+        <v>140902</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1200,7 +1281,7 @@
         <v>156</v>
       </c>
       <c r="I8" s="7">
-        <v>168607</v>
+        <v>144507</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1215,7 +1296,7 @@
         <v>265</v>
       </c>
       <c r="N8" s="7">
-        <v>323646</v>
+        <v>285409</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1236,7 +1317,7 @@
         <v>301</v>
       </c>
       <c r="D9" s="7">
-        <v>428236</v>
+        <v>423382</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1251,7 +1332,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1266,7 +1347,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>927451</v>
+        <v>935475</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1289,7 +1370,7 @@
         <v>367</v>
       </c>
       <c r="D10" s="7">
-        <v>376541</v>
+        <v>372265</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1304,7 +1385,7 @@
         <v>595</v>
       </c>
       <c r="I10" s="7">
-        <v>418757</v>
+        <v>421661</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1319,7 +1400,7 @@
         <v>962</v>
       </c>
       <c r="N10" s="7">
-        <v>795297</v>
+        <v>793926</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1328,7 +1409,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1340,46 +1421,46 @@
         <v>177</v>
       </c>
       <c r="D11" s="7">
-        <v>179660</v>
+        <v>163042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>250</v>
       </c>
       <c r="I11" s="7">
-        <v>189935</v>
+        <v>168675</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>427</v>
       </c>
       <c r="N11" s="7">
-        <v>369596</v>
+        <v>331717</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1391,7 +1472,7 @@
         <v>544</v>
       </c>
       <c r="D12" s="7">
-        <v>556201</v>
+        <v>535307</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1406,7 +1487,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>608692</v>
+        <v>590336</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1421,7 +1502,7 @@
         <v>1389</v>
       </c>
       <c r="N12" s="7">
-        <v>1164893</v>
+        <v>1125643</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1435,7 +1516,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1444,46 +1525,46 @@
         <v>468</v>
       </c>
       <c r="D13" s="7">
-        <v>514783</v>
+        <v>700088</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>762</v>
       </c>
       <c r="I13" s="7">
-        <v>491003</v>
+        <v>484108</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1230</v>
       </c>
       <c r="N13" s="7">
-        <v>1005786</v>
+        <v>1184196</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1495,46 +1576,46 @@
         <v>197</v>
       </c>
       <c r="D14" s="7">
-        <v>209207</v>
+        <v>187698</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>375</v>
       </c>
       <c r="I14" s="7">
-        <v>253960</v>
+        <v>226627</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>572</v>
       </c>
       <c r="N14" s="7">
-        <v>463168</v>
+        <v>414326</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1546,7 +1627,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1561,7 +1642,7 @@
         <v>1137</v>
       </c>
       <c r="I15" s="7">
-        <v>744963</v>
+        <v>710735</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1576,7 +1657,7 @@
         <v>1802</v>
       </c>
       <c r="N15" s="7">
-        <v>1468954</v>
+        <v>1598522</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1590,7 +1671,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1599,46 +1680,46 @@
         <v>436</v>
       </c>
       <c r="D16" s="7">
-        <v>392285</v>
+        <v>375494</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>664</v>
       </c>
       <c r="I16" s="7">
-        <v>383341</v>
+        <v>358201</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1100</v>
       </c>
       <c r="N16" s="7">
-        <v>775627</v>
+        <v>733696</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1650,46 +1731,46 @@
         <v>223</v>
       </c>
       <c r="D17" s="7">
-        <v>204280</v>
+        <v>182432</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>337</v>
       </c>
       <c r="I17" s="7">
-        <v>213051</v>
+        <v>189084</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>560</v>
       </c>
       <c r="N17" s="7">
-        <v>417331</v>
+        <v>371516</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,7 +1782,7 @@
         <v>659</v>
       </c>
       <c r="D18" s="7">
-        <v>596565</v>
+        <v>557926</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1716,7 +1797,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>596392</v>
+        <v>547285</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1731,7 +1812,7 @@
         <v>1660</v>
       </c>
       <c r="N18" s="7">
-        <v>1192958</v>
+        <v>1105212</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1745,55 +1826,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>678</v>
+        <v>377</v>
       </c>
       <c r="D19" s="7">
-        <v>451703</v>
+        <v>244932</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>1175</v>
+        <v>560</v>
       </c>
       <c r="I19" s="7">
-        <v>713103</v>
+        <v>473127</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>1853</v>
+        <v>937</v>
       </c>
       <c r="N19" s="7">
-        <v>1164806</v>
+        <v>718059</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,49 +1883,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>349</v>
+        <v>192</v>
       </c>
       <c r="D20" s="7">
-        <v>245227</v>
+        <v>122454</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>531</v>
+        <v>266</v>
       </c>
       <c r="I20" s="7">
-        <v>312244</v>
+        <v>134662</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>880</v>
+        <v>458</v>
       </c>
       <c r="N20" s="7">
-        <v>557470</v>
+        <v>257116</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,10 +1934,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696930</v>
+        <v>367386</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1868,10 +1949,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1025347</v>
+        <v>607789</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1883,10 +1964,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2733</v>
+        <v>1395</v>
       </c>
       <c r="N21" s="7">
-        <v>1722276</v>
+        <v>975175</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1900,55 +1981,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2256</v>
+        <v>301</v>
       </c>
       <c r="D22" s="7">
-        <v>2280953</v>
+        <v>185017</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>3626</v>
+        <v>615</v>
       </c>
       <c r="I22" s="7">
-        <v>2551488</v>
+        <v>288008</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>5882</v>
+        <v>916</v>
       </c>
       <c r="N22" s="7">
-        <v>4832442</v>
+        <v>473025</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,49 +2038,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1112</v>
+        <v>157</v>
       </c>
       <c r="D23" s="7">
-        <v>1098647</v>
+        <v>97742</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>1730</v>
+        <v>265</v>
       </c>
       <c r="I23" s="7">
-        <v>1276221</v>
+        <v>137223</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>2842</v>
+        <v>422</v>
       </c>
       <c r="N23" s="7">
-        <v>2374868</v>
+        <v>234965</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,63 +2089,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425231</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707990</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2256</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2468061</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3626</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2589706</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5882</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5057767</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1112</v>
+      </c>
+      <c r="D26" s="7">
+        <v>986473</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1730</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1115229</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2842</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2101702</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3368</v>
       </c>
-      <c r="D24" s="7">
-        <v>3379600</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3454534</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5356</v>
       </c>
-      <c r="I24" s="7">
-        <v>3827709</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3704935</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8724</v>
       </c>
-      <c r="N24" s="7">
-        <v>7207310</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="N27" s="7">
+        <v>7159469</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
